--- a/5504 HW/Ch. 16/Q9.xlsx
+++ b/5504 HW/Ch. 16/Q9.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaalejandra/Desktop/Test/5504 HW/Ch. 16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A569822C-EF6C-AB4A-9C80-2F4663C84223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4EE5E5-A171-D74E-AFA5-6B10F06EA689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{2EC12774-1A1F-DF42-9503-BFC417A168DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>risk</t>
   </si>
@@ -45,13 +45,88 @@
   </si>
   <si>
     <t>bloodpressure</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>age blood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,6 +147,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -81,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,14 +172,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FA647B-80BF-D74D-B3ED-0D86DDB6E9E5}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -432,6 +543,9 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
@@ -446,7 +560,10 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <f>B2*C2</f>
+        <v>6825</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -461,7 +578,10 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E21" si="0">B3*C3</f>
+        <v>10769</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -476,7 +596,10 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>9504</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -491,7 +614,10 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>8060</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -506,7 +632,10 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>13904</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -521,7 +650,10 @@
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>11913</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -536,7 +668,10 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>8976</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -551,7 +686,10 @@
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>7140</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -566,7 +704,10 @@
       <c r="D10" s="1">
         <v>0</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>8736</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -581,7 +722,10 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>15054</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -596,7 +740,10 @@
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>8322</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -611,7 +758,10 @@
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>8024</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -626,7 +776,10 @@
       <c r="D14" s="1">
         <v>0</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>8611</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -641,7 +794,10 @@
       <c r="D15" s="1">
         <v>0</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>16275</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -656,9 +812,12 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>10824</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>38</v>
       </c>
@@ -671,9 +830,12 @@
       <c r="D17" s="1">
         <v>0</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>15785</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>36</v>
       </c>
@@ -686,9 +848,12 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>15309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>37</v>
       </c>
@@ -701,9 +866,12 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>11830</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -716,9 +884,12 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>12160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>37</v>
       </c>
@@ -731,7 +902,279 @@
       <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>16770</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.49179855809152245</v>
+      </c>
+    </row>
+    <row r="34" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.24186582174090057</v>
+      </c>
+    </row>
+    <row r="35" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
+        <v>9.9715663317319403E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="3">
+        <v>13.424175735298906</v>
+      </c>
+    </row>
+    <row r="37" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L40" s="5"/>
+      <c r="M40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="3">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3">
+        <v>919.864093244993</v>
+      </c>
+      <c r="O41" s="3">
+        <v>306.62136441499769</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1.701481197229378</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0.20681871309394478</v>
+      </c>
+    </row>
+    <row r="42" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="3">
+        <v>16</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2883.3359067550068</v>
+      </c>
+      <c r="O42" s="3">
+        <v>180.20849417218793</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+    </row>
+    <row r="43" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M43" s="4">
+        <v>19</v>
+      </c>
+      <c r="N43" s="4">
+        <v>3803.2</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L45" s="5"/>
+      <c r="M45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="3">
+        <v>25.772606260281972</v>
+      </c>
+      <c r="N46" s="3">
+        <v>28.27807524062051</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0.91139888556702353</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0.3756126958019872</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>-34.174235294086813</v>
+      </c>
+      <c r="R46" s="3">
+        <v>85.719447814650763</v>
+      </c>
+      <c r="S46" s="3">
+        <v>-34.174235294086813</v>
+      </c>
+      <c r="T46" s="3">
+        <v>85.719447814650763</v>
+      </c>
+    </row>
+    <row r="47" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3">
+        <v>-0.19365884678307915</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.36261947763899716</v>
+      </c>
+      <c r="O47" s="3">
+        <v>-0.53405528032852834</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0.60064550540027484</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>-0.96237779903083265</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0.57506010546467423</v>
+      </c>
+      <c r="S47" s="3">
+        <v>-0.96237779903083265</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0.57506010546467423</v>
+      </c>
+    </row>
+    <row r="48" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0.15402464849377767</v>
+      </c>
+      <c r="N48" s="3">
+        <v>8.1155460607837807E-2</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1.8978963010026011</v>
+      </c>
+      <c r="P48" s="3">
+        <v>7.5902804652420552E-2</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>-1.8017242509519499E-2</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0.32606653949707487</v>
+      </c>
+      <c r="S48" s="3">
+        <v>-1.8017242509519499E-2</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0.32606653949707487</v>
+      </c>
+    </row>
+    <row r="49" spans="12:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L49" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M49" s="4">
+        <v>-10.479557560461689</v>
+      </c>
+      <c r="N49" s="4">
+        <v>6.7145442189395395</v>
+      </c>
+      <c r="O49" s="4">
+        <v>-1.5607250795820624</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0.13814815557883331</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>-24.713755432047062</v>
+      </c>
+      <c r="R49" s="4">
+        <v>3.7546403111236835</v>
+      </c>
+      <c r="S49" s="4">
+        <v>-24.713755432047062</v>
+      </c>
+      <c r="T49" s="4">
+        <v>3.7546403111236835</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
